--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -75,12 +75,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>107302 =&gt; 59003</t>
-  </si>
-  <si>
-    <t>138213 =&gt; 38738</t>
-  </si>
-  <si>
     <t>31855 (giữ nguyên)</t>
   </si>
   <si>
@@ -88,6 +82,18 @@
   </si>
   <si>
     <t>5020 (giữ nguyên)</t>
+  </si>
+  <si>
+    <t>oke</t>
+  </si>
+  <si>
+    <t>107003 =&gt; 59003</t>
+  </si>
+  <si>
+    <t>181739 =&gt; 41739</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -286,34 +292,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T17"/>
+  <dimension ref="B2:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,24 +635,24 @@
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -660,9 +666,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
@@ -696,13 +702,16 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="3:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="2:20" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2">
-        <v>331867</v>
+        <v>331876</v>
       </c>
       <c r="F5" s="2">
         <v>582561</v>
@@ -716,8 +725,8 @@
       <c r="I5" s="2">
         <v>58659</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>19</v>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="3">
@@ -738,8 +747,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -763,7 +775,9 @@
       <c r="J6" s="2">
         <v>25368</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="3">
         <v>253728</v>
       </c>
@@ -782,8 +796,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="13"/>
+    <row r="7" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
@@ -805,7 +822,9 @@
       <c r="J7" s="2">
         <v>25378</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L7" s="3">
         <v>253776</v>
       </c>
@@ -824,8 +843,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
+    <row r="8" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
@@ -866,8 +888,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14"/>
+    <row r="9" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
@@ -875,7 +900,7 @@
         <v>81512</v>
       </c>
       <c r="F9" s="2">
-        <v>60916</v>
+        <v>60912</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
@@ -910,23 +935,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="2">
-        <v>326048</v>
+        <v>81512</v>
       </c>
       <c r="F10" s="2">
-        <v>284810</v>
+        <v>284806</v>
       </c>
       <c r="G10" s="2">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="H10" s="2">
         <v>80000</v>
       </c>
       <c r="I10" s="2">
-        <v>101512</v>
+        <v>25378</v>
       </c>
       <c r="J10" s="2">
         <v>91204</v>
@@ -942,19 +972,22 @@
       <c r="S10" s="1"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="2">
-        <v>102231</v>
+        <v>107231</v>
       </c>
       <c r="F11" s="2">
         <v>671285</v>
       </c>
       <c r="G11" s="2">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="H11" s="2">
         <v>30000</v>
@@ -962,8 +995,8 @@
       <c r="I11" s="2">
         <v>38702</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="3">
@@ -984,7 +1017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1008,7 +1041,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1030,28 +1063,31 @@
       <c r="S13" s="1"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3">
         <v>56817</v>
       </c>
       <c r="F14" s="3">
-        <v>480087</v>
+        <v>470087</v>
       </c>
       <c r="G14" s="3">
         <v>15000</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="I14" s="3">
         <v>17508</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1068,11 +1104,14 @@
       <c r="S14" s="1"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3">
         <v>7374</v>
       </c>
@@ -1089,7 +1128,7 @@
         <v>7905</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1106,19 +1145,22 @@
       <c r="S15" s="1"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="3">
-        <v>61584</v>
+        <v>56584</v>
       </c>
       <c r="F16" s="3">
         <v>23994</v>
       </c>
       <c r="G16" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H16" s="3">
         <v>5000</v>
@@ -1127,7 +1169,7 @@
         <v>10462</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1145,10 +1187,10 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3">
         <v>58968</v>
       </c>
@@ -1180,17 +1222,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -100,6 +100,116 @@
   </si>
   <si>
     <t xml:space="preserve">train: 461, val: 125, test: </t>
+  </si>
+  <si>
+    <t>ko cross-attn</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit (v2):        
+ bỏ ifft, cross-attention theo freq và spatial</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v3:   bỏ pos_embeding, lấy theo mean</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v4:   thay backbone: efficient =&gt; xception</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v5:   guided spatial attention cho frequency domain</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v6:   thêm conv (linear) k, q, v, thêm linear cho v và đổi vector: patch =&gt; lấy toàn bộ feature (chi tiết xem code srm)</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v7:   thêm conv (linear) k, q, v và đổi vector: patch =&gt; lấy toàn bộ feature (chi tiết xem code srm)</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v8:   thêm dual-crossattn</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit v9:                         
++ image stream đi qua vit                        + freq (amuzital vector) đi qua mlp        + 2 cái vector concat lại</t>
+  </si>
+  <si>
+    <t>capsule</t>
+  </si>
+  <si>
+    <t>mesonet4</t>
+  </si>
+  <si>
+    <t>xception</t>
+  </si>
+  <si>
+    <t>dual-efficient</t>
+  </si>
+  <si>
+    <t>dual-crossattn</t>
+  </si>
+  <si>
+    <t>dual-efficient-vit (v1)</t>
+  </si>
+  <si>
+    <t>uadfv</t>
+  </si>
+  <si>
+    <t>'0.82</t>
+  </si>
+  <si>
+    <t>'0.95</t>
+  </si>
+  <si>
+    <t>celeb-df</t>
+  </si>
+  <si>
+    <t>'0.80</t>
+  </si>
+  <si>
+    <t>'0.97</t>
+  </si>
+  <si>
+    <t>8 (hiện tại: 0.97)</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>'0.78</t>
+  </si>
+  <si>
+    <t>8(max: 0.99)</t>
+  </si>
+  <si>
+    <t>dfdc</t>
+  </si>
+  <si>
+    <t>'0.62</t>
+  </si>
+  <si>
+    <t>8 (hiện tại: 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (max: 0.86 - hiện tại: 0.82 e2) </t>
+  </si>
+  <si>
+    <t>8 (max: 0.84 - hiện tại: e1)</t>
+  </si>
+  <si>
+    <t>df_in_the_wild</t>
+  </si>
+  <si>
+    <t>'0.55</t>
+  </si>
+  <si>
+    <t>8 (hiện tại: 0.77)</t>
+  </si>
+  <si>
+    <t>61 (hiện tại: 0.79 - e3)</t>
+  </si>
+  <si>
+    <t>8 (hiện tại: 0.8)</t>
+  </si>
+  <si>
+    <t>61 (hiện tại: 0.81 -e4)</t>
   </si>
 </sst>
 </file>
@@ -107,13 +217,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,7 +263,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -281,97 +404,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,685 +807,965 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="28" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="29" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="29" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="29" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="32" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="32" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="29" width="21.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="33" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="33" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="29" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="33" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="33" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="29" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="29" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="13" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16">
+      <c r="D5" s="9"/>
+      <c r="E5" s="15">
         <v>331876</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>582561</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>50000</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>50000</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>58659</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="20">
+      <c r="K5" s="10"/>
+      <c r="L5" s="18">
         <v>1132090</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="20">
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="18">
         <v>440526</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="18">
         <v>691564</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="13" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>81512</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>81470</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>20000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>20000</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>25378</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>25368</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>253728</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="20">
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="18">
         <v>126890</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="18">
         <v>126838</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="13" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>81512</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>81508</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>20000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>20000</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>25378</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>25378</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>253776</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="20">
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="18">
         <v>126890</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="18">
         <v>126886</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="13" t="s">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>81512</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>60916</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>20000</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>20000</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>25378</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>20229</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="20">
+      <c r="K8" s="10"/>
+      <c r="L8" s="18">
         <v>228035</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="20">
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="18">
         <v>126890</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="18">
         <v>101145</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="13" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>81512</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>60912</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>20000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>20000</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>25378</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="21">
         <v>20229</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="20">
+      <c r="K9" s="10"/>
+      <c r="L9" s="18">
         <v>228035</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="18">
         <v>582904</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="20">
+      <c r="N9" s="10"/>
+      <c r="O9" s="18">
         <v>126890</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="18">
         <v>101145</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="13" t="s">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>81512</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>284806</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>20000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>80000</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>25378</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>91204</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16">
+      <c r="D11" s="9"/>
+      <c r="E11" s="15">
         <v>107231</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>671285</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>25000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>30000</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>38702</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="20">
+      <c r="K11" s="10"/>
+      <c r="L11" s="18">
         <v>910956</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="20">
+      <c r="M11" s="11"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="18">
         <v>170933</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="18">
         <v>740023</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="13" t="s">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="20">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="18">
         <v>507560</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="18">
         <v>456014</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16">
+      <c r="S12" s="10"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
         <v>284810</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25" customFormat="1" s="6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20">
+      <c r="D14" s="9"/>
+      <c r="E14" s="18">
         <v>56817</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>470087</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>15000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>25000</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>17508</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="20">
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="18">
         <v>89325</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="18">
         <v>526942</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20">
+      <c r="D15" s="9"/>
+      <c r="E15" s="18">
         <v>7374</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>7358</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>2000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>2000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>7905</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="20">
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="18">
         <v>17279</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="18">
         <v>16944</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20">
+      <c r="D16" s="9"/>
+      <c r="E16" s="18">
         <v>56584</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>23994</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>10000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>5000</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>10462</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="20">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="18">
         <v>77046</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="18">
         <v>34014</v>
       </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="17" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20">
+      <c r="D17" s="9"/>
+      <c r="E17" s="18">
         <v>58968</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>58968</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>20000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="18">
         <v>20000</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <v>39561</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="18">
         <v>39561</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="114" customFormat="1" s="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="5">
+        <v>61</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Bộ dữ liệu</t>
   </si>
@@ -167,16 +167,13 @@
     <t>'0.97</t>
   </si>
   <si>
-    <t>8 (hiện tại: 0.97)</t>
-  </si>
-  <si>
-    <t>ff</t>
+    <t>ff (đang train lại toàn bộ trên con 61)</t>
   </si>
   <si>
     <t>'0.78</t>
   </si>
   <si>
-    <t>8(max: 0.99)</t>
+    <t>0.97 (61)</t>
   </si>
   <si>
     <t>dfdc</t>
@@ -185,13 +182,13 @@
     <t>'0.62</t>
   </si>
   <si>
-    <t>8 (hiện tại: 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (max: 0.86 - hiện tại: 0.82 e2) </t>
-  </si>
-  <si>
-    <t>8 (max: 0.84 - hiện tại: e1)</t>
+    <t>0.82 (max: 0.83 - 8) (đang train lại trên 8 - hiện tại: 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (max: 0.86 -61 - hiện tại: e1, cần 0.82 0.83) </t>
+  </si>
+  <si>
+    <t>8 (max: 0.84 - hiện tại: 0.83 - e13)</t>
   </si>
   <si>
     <t>df_in_the_wild</t>
@@ -200,16 +197,16 @@
     <t>'0.55</t>
   </si>
   <si>
-    <t>8 (hiện tại: 0.77)</t>
-  </si>
-  <si>
-    <t>61 (hiện tại: 0.79 - e3)</t>
-  </si>
-  <si>
-    <t>8 (hiện tại: 0.8)</t>
-  </si>
-  <si>
-    <t>61 (hiện tại: 0.81 -e4)</t>
+    <t>'0.78 (8)</t>
+  </si>
+  <si>
+    <t>8 (hiện tại: 0.8-e1, cần 0.79)</t>
+  </si>
+  <si>
+    <t>8 ()</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -813,12 +810,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="29" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="29" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="29" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="32" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="32" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="32" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="32" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="32" width="20.290714285714284" customWidth="1" bestFit="1"/>
@@ -1650,8 +1647,8 @@
       <c r="D23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
+      <c r="E23" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1669,20 +1666,18 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5">
-        <v>8</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1699,26 +1694,24 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="51" customFormat="1" s="1">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="5">
-        <v>61</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1735,23 +1728,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
